--- a/TestData/Staging/Web_POS/Order/customer_tagging_order_test_data.xlsx
+++ b/TestData/Staging/Web_POS/Order/customer_tagging_order_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Staging\Web_POS\Order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\production api\zwing-qa-automation\TestData\Staging\Web_POS\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -424,17 +424,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -496,25 +491,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
-    <border>
-      <left>
-        <color indexed="64"/>
-      </left>
-      <right>
-        <color indexed="64"/>
-      </right>
-      <top>
-        <color indexed="64"/>
-      </top>
-      <bottom>
-        <color indexed="64"/>
-      </bottom>
-      <diagonal>
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -527,7 +505,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -537,32 +515,32 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,11 +910,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0" topLeftCell="T1">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0" topLeftCell="O1">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="12.67969" customWidth="1"/>
     <col min="2" max="2" width="19.27734" customWidth="1"/>
@@ -1849,7 +1827,7 @@
         <v>5686249819</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="14.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2199,7 +2177,7 @@
         <v>5686249819</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="14.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -2279,7 +2257,7 @@
         <v>5686249819</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="14.25">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -2359,7 +2337,7 @@
         <v>5686249819</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="14.25">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -2439,7 +2417,7 @@
         <v>5686249819</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="14.25">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -2608,7 +2586,7 @@
         <v>5686249819</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="14.25">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -2781,7 +2759,7 @@
         <v>5686249819</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="14.25">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -2864,7 +2842,7 @@
         <v>5686249819</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="14.25">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -2941,7 +2919,7 @@
         <v>5686249819</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="14.25">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -3101,7 +3079,7 @@
         <v>5686249819</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="14.25">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -3187,7 +3165,7 @@
         <v>5686249819</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="14.25">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -3267,7 +3245,7 @@
         <v>5686249819</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="14.25">
       <c r="A28" t="s">
         <v>124</v>
       </c>
@@ -3341,7 +3319,7 @@
         <v>5686249819</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="14.25">
       <c r="A29" t="s">
         <v>126</v>
       </c>
@@ -3430,7 +3408,7 @@
         <v>5686249819</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="14.25">
       <c r="A30" t="s">
         <v>128</v>
       </c>
@@ -3519,7 +3497,7 @@
         <v>5686249819</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="14.25">
       <c r="B31" s="1"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -3533,7 +3511,7 @@
       <c r="Q31" s="12"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32">
+    <row r="32" ht="14.25">
       <c r="B32" s="1"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3547,7 +3525,7 @@
       <c r="Q32" s="12"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33">
+    <row r="33" ht="14.25">
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3561,7 +3539,7 @@
       <c r="Q33" s="12"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34">
+    <row r="34" ht="14.25">
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3573,7 +3551,7 @@
       <c r="Q34" s="12"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35">
+    <row r="35" ht="14.25">
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -3585,7 +3563,7 @@
       <c r="Q35" s="12"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36">
+    <row r="36" ht="14.25">
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -3598,7 +3576,7 @@
       <c r="Q36" s="12"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37">
+    <row r="37" ht="14.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -3610,7 +3588,7 @@
       <c r="Q37" s="12"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38">
+    <row r="38" ht="14.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -3622,7 +3600,7 @@
       <c r="Q38" s="12"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39">
+    <row r="39" ht="14.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -3634,7 +3612,7 @@
       <c r="Q39" s="12"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40">
+    <row r="40" ht="14.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -3646,7 +3624,7 @@
       <c r="Q40" s="12"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41">
+    <row r="41" ht="14.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -3658,7 +3636,7 @@
       <c r="Q41" s="12"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42">
+    <row r="42" ht="14.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3670,7 +3648,7 @@
       <c r="Q42" s="12"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43">
+    <row r="43" ht="14.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -3682,7 +3660,7 @@
       <c r="Q43" s="12"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44">
+    <row r="44" ht="14.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -3694,7 +3672,7 @@
       <c r="Q44" s="12"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45">
+    <row r="45" ht="14.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -3706,7 +3684,7 @@
       <c r="Q45" s="12"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46">
+    <row r="46" ht="14.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3718,7 +3696,7 @@
       <c r="Q46" s="12"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47">
+    <row r="47" ht="14.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -3730,7 +3708,7 @@
       <c r="Q47" s="12"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48">
+    <row r="48" ht="14.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -3742,7 +3720,7 @@
       <c r="Q48" s="12"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49">
+    <row r="49" ht="14.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -3754,7 +3732,7 @@
       <c r="Q49" s="12"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50">
+    <row r="50" ht="14.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -3766,7 +3744,7 @@
       <c r="Q50" s="12"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51">
+    <row r="51" ht="14.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -3778,7 +3756,7 @@
       <c r="Q51" s="12"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52">
+    <row r="52" ht="14.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -3790,7 +3768,7 @@
       <c r="Q52" s="12"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53">
+    <row r="53" ht="14.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -3802,7 +3780,7 @@
       <c r="Q53" s="12"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54">
+    <row r="54" ht="14.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -3814,7 +3792,7 @@
       <c r="Q54" s="12"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55">
+    <row r="55" ht="14.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -3826,7 +3804,7 @@
       <c r="Q55" s="12"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56">
+    <row r="56" ht="14.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -3838,7 +3816,7 @@
       <c r="Q56" s="12"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57">
+    <row r="57" ht="14.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -3850,7 +3828,7 @@
       <c r="Q57" s="12"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58">
+    <row r="58" ht="14.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -3862,7 +3840,7 @@
       <c r="Q58" s="12"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59">
+    <row r="59" ht="14.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -3874,7 +3852,7 @@
       <c r="Q59" s="12"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60">
+    <row r="60" ht="14.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -3886,7 +3864,7 @@
       <c r="Q60" s="12"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61">
+    <row r="61" ht="14.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -3898,7 +3876,7 @@
       <c r="Q61" s="12"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62">
+    <row r="62" ht="14.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -3910,7 +3888,7 @@
       <c r="Q62" s="12"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63">
+    <row r="63" ht="14.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>

--- a/TestData/Staging/Web_POS/Order/customer_tagging_order_test_data.xlsx
+++ b/TestData/Staging/Web_POS/Order/customer_tagging_order_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\production api\zwing-qa-automation\TestData\Staging\Web_POS\Order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zwing-qa-automation\TestData\Staging\Web_POS\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -156,10 +156,10 @@
     <t>TC_02</t>
   </si>
   <si>
-    <t>307260624YP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usertwop10 </t>
+    <t>4922208247GB</t>
+  </si>
+  <si>
+    <t>O_CT_user2_p10</t>
   </si>
   <si>
     <t>2000 : 1</t>
@@ -169,12 +169,6 @@
   </si>
   <si>
     <t>TC_03</t>
-  </si>
-  <si>
-    <t>307260624Wa9</t>
-  </si>
-  <si>
-    <t>usertwop10</t>
   </si>
   <si>
     <t>QBSB-any___qty-Flat-Fixed-Each</t>
@@ -910,8 +904,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0" topLeftCell="O1">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1201,7 +1195,7 @@
         <v>43</v>
       </c>
       <c r="AC3" s="2">
-        <v>7896325874</v>
+        <v>7865467897</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
@@ -1209,7 +1203,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>31</v>
@@ -1218,7 +1212,7 @@
         <v>123456</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F4" s="9">
         <v>123456</v>
@@ -1233,7 +1227,7 @@
         <v>35</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -1290,15 +1284,15 @@
         <v>43</v>
       </c>
       <c r="AC4" s="2">
-        <v>7896325874</v>
+        <v>7865467897</v>
       </c>
     </row>
     <row r="5" ht="34.6" customHeight="1">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>31</v>
@@ -1307,7 +1301,7 @@
         <v>123456</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F5" s="9">
         <v>123456</v>
@@ -1322,7 +1316,7 @@
         <v>35</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -1331,7 +1325,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>38</v>
@@ -1370,7 +1364,7 @@
         <v>411001</v>
       </c>
       <c r="Z5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AA5" s="4" t="s">
         <v>42</v>
@@ -1384,7 +1378,7 @@
     </row>
     <row r="6" ht="26.25" customHeight="1">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>30</v>
@@ -1411,7 +1405,7 @@
         <v>35</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
@@ -1420,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>38</v>
@@ -1473,7 +1467,7 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>30</v>
@@ -1500,7 +1494,7 @@
         <v>35</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -1509,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>38</v>
@@ -1562,7 +1556,7 @@
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>30</v>
@@ -1589,7 +1583,7 @@
         <v>35</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
@@ -1598,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>38</v>
@@ -1651,7 +1645,7 @@
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>30</v>
@@ -1678,7 +1672,7 @@
         <v>35</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
@@ -1687,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>38</v>
@@ -1740,7 +1734,7 @@
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>30</v>
@@ -1767,7 +1761,7 @@
         <v>35</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
@@ -1829,7 +1823,7 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>30</v>
@@ -1856,7 +1850,7 @@
         <v>35</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
@@ -1918,7 +1912,7 @@
     </row>
     <row r="12" ht="28.5">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>30</v>
@@ -1945,7 +1939,7 @@
         <v>35</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
@@ -1954,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>38</v>
@@ -2007,7 +2001,7 @@
     </row>
     <row r="13" ht="25.5">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>30</v>
@@ -2034,7 +2028,7 @@
         <v>35</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K13" s="1">
         <v>1</v>
@@ -2043,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>38</v>
@@ -2064,10 +2058,10 @@
         <v>42</v>
       </c>
       <c r="T13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V13" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W13" s="4" t="s">
         <v>42</v>
@@ -2093,7 +2087,7 @@
     </row>
     <row r="14" ht="25.5">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>30</v>
@@ -2120,7 +2114,7 @@
         <v>35</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
@@ -2129,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>38</v>
@@ -2150,10 +2144,10 @@
         <v>42</v>
       </c>
       <c r="T14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W14" s="4" t="s">
         <v>42</v>
@@ -2179,7 +2173,7 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>30</v>
@@ -2206,7 +2200,7 @@
         <v>35</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K15" s="1">
         <v>1</v>
@@ -2215,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>38</v>
@@ -2233,10 +2227,10 @@
         <v>41</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W15">
         <v>9876543212</v>
@@ -2259,7 +2253,7 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>30</v>
@@ -2286,7 +2280,7 @@
         <v>35</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -2316,7 +2310,7 @@
         <v>42</v>
       </c>
       <c r="T16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="W16">
         <v>9876543212</v>
@@ -2339,7 +2333,7 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>30</v>
@@ -2366,7 +2360,7 @@
         <v>35</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
@@ -2396,13 +2390,13 @@
         <v>42</v>
       </c>
       <c r="T17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="W17">
         <v>9876543212</v>
       </c>
       <c r="X17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>42</v>
@@ -2419,7 +2413,7 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>30</v>
@@ -2446,7 +2440,7 @@
         <v>35</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -2476,13 +2470,13 @@
         <v>42</v>
       </c>
       <c r="T18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W18">
         <v>9876543212</v>
       </c>
       <c r="X18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>42</v>
@@ -2499,7 +2493,7 @@
     </row>
     <row r="19" ht="25.5">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>30</v>
@@ -2526,7 +2520,7 @@
         <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
@@ -2553,16 +2547,16 @@
         <v>41</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U19" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="V19" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W19">
         <v>8149214985</v>
@@ -2588,7 +2582,7 @@
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>30</v>
@@ -2615,7 +2609,7 @@
         <v>35</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
@@ -2642,10 +2636,10 @@
         <v>41</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U20" s="13">
         <v>123456789876543</v>
@@ -2677,7 +2671,7 @@
     </row>
     <row r="21" ht="25.5">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>30</v>
@@ -2704,7 +2698,7 @@
         <v>35</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K21" s="1">
         <v>1</v>
@@ -2734,11 +2728,11 @@
         <v>42</v>
       </c>
       <c r="T21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="X21" s="4" t="s">
         <v>42</v>
@@ -2750,7 +2744,7 @@
         <v>42</v>
       </c>
       <c r="AA21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AB21" t="s">
         <v>43</v>
@@ -2761,7 +2755,7 @@
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>30</v>
@@ -2788,7 +2782,7 @@
         <v>35</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
@@ -2797,7 +2791,7 @@
         <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>38</v>
@@ -2818,7 +2812,7 @@
         <v>42</v>
       </c>
       <c r="T22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U22">
         <v>123456765445434</v>
@@ -2844,7 +2838,7 @@
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>30</v>
@@ -2871,7 +2865,7 @@
         <v>35</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K23" s="1">
         <v>1</v>
@@ -2880,7 +2874,7 @@
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>38</v>
@@ -2921,7 +2915,7 @@
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>30</v>
@@ -2948,13 +2942,13 @@
         <v>35</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L24" s="1">
         <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>38</v>
@@ -2995,7 +2989,7 @@
     </row>
     <row r="25" ht="25.5">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>30</v>
@@ -3022,7 +3016,7 @@
         <v>35</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K25" s="1">
         <v>1</v>
@@ -3052,10 +3046,10 @@
         <v>42</v>
       </c>
       <c r="T25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="W25">
         <v>8149214985</v>
@@ -3081,7 +3075,7 @@
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>30</v>
@@ -3108,7 +3102,7 @@
         <v>35</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
@@ -3126,10 +3120,10 @@
         <v>45386</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q26" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>41</v>
@@ -3138,7 +3132,7 @@
         <v>42</v>
       </c>
       <c r="T26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U26">
         <v>123456765445434</v>
@@ -3147,7 +3141,7 @@
         <v>8149214985</v>
       </c>
       <c r="X26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y26" s="1">
         <v>791113</v>
@@ -3167,7 +3161,7 @@
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>30</v>
@@ -3194,7 +3188,7 @@
         <v>35</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K27" s="1">
         <v>1</v>
@@ -3224,10 +3218,10 @@
         <v>42</v>
       </c>
       <c r="T27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y27">
         <v>411001</v>
@@ -3247,7 +3241,7 @@
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>30</v>
@@ -3274,7 +3268,7 @@
         <v>35</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K28" s="1">
         <v>1</v>
@@ -3321,7 +3315,7 @@
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>30</v>
@@ -3348,7 +3342,7 @@
         <v>35</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
@@ -3357,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>38</v>
@@ -3410,7 +3404,7 @@
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
@@ -3422,7 +3416,7 @@
         <v>123456</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F30" s="9">
         <v>123456</v>
@@ -3437,7 +3431,7 @@
         <v>35</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
@@ -3446,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>38</v>
